--- a/src/main/resources/womenRevolveCoat.xlsx
+++ b/src/main/resources/womenRevolveCoat.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="185">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="221">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,250 +32,418 @@
     <t>URL</t>
   </si>
   <si>
-    <t>JACKETS &amp; COATS</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SMAD-WO83_V1.jpg</t>
+    <t>women_revolve_coat_1</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WO17_V1.jpg</t>
+  </si>
+  <si>
+    <t>Camila Coelho</t>
+  </si>
+  <si>
+    <t>Morena Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 315.10</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-morena-blazer-in-nude-toffee/dp/COEL-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_2</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO61_V1.jpg</t>
+  </si>
+  <si>
+    <t>ANINE BING</t>
+  </si>
+  <si>
+    <t>Rory Denim Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 556.98</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/anine-bing-rory-denim-jacket-in-vintage-blue/dp/ANIN-WO61/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_3</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WO65_V1.jpg</t>
+  </si>
+  <si>
+    <t>LEVI'S</t>
+  </si>
+  <si>
+    <t>90s Trucker</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WO21_V1.jpg</t>
+  </si>
+  <si>
+    <t>Arielle Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 283.27</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-arielle-blazer-in-ivory/dp/COEL-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO21_V1.jpg</t>
+  </si>
+  <si>
+    <t>ALLSAINTS</t>
+  </si>
+  <si>
+    <t>Milena Hooded Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 396.25</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-milena-hooded-jacket-in-indigo-blue/dp/ALLR-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO49_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'AGENCE</t>
+  </si>
+  <si>
+    <t>Janelle Slim Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 454.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lagence-janelle-slim-jacket-in-biscuit/dp/LAGR-WO49/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO82_V1.jpg</t>
+  </si>
+  <si>
+    <t>Quinn Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 875.25</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/anine-bing-quinn-blazer-in-green-khaki/dp/ANIN-WO82/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Helsa</t>
+  </si>
+  <si>
+    <t>Recycled Twill S Curve Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 553.80</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-recycled-twill-s-curve-jacket-in-black/dp/HLSA-WO10/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO26_V1.jpg</t>
+  </si>
+  <si>
+    <t>Workwear Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 410.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO17_V1.jpg</t>
+  </si>
+  <si>
+    <t>LIONESS</t>
+  </si>
+  <si>
+    <t>Olsen Coat</t>
+  </si>
+  <si>
+    <t>CA$ 221.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lioness-olsen-coat-in-cream/dp/LIOR-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO164_V1.jpg</t>
+  </si>
+  <si>
+    <t>Norma Kamali</t>
+  </si>
+  <si>
+    <t>Oversized Single Breasted Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 413.75</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-oversized-single-breasted-jacket-in-woods/dp/NKAM-WO164/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WO69_V1.jpg</t>
+  </si>
+  <si>
+    <t>Show Me Your Mumu</t>
+  </si>
+  <si>
+    <t>Penny Lane Faux Leather Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 420.12</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-penny-lane-faux-leather-jacket-in-sage/dp/SHOW-WO69/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO29_V1.jpg</t>
+  </si>
+  <si>
+    <t>Amanda Uprichard</t>
+  </si>
+  <si>
+    <t>Shawl Collar Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 301.22</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WS13_V1.jpg</t>
+  </si>
+  <si>
+    <t>Favorite Daughter</t>
+  </si>
+  <si>
+    <t>The Favorite Vest</t>
+  </si>
+  <si>
+    <t>CA$ 284.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO64_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>The Classic Trench</t>
+  </si>
+  <si>
+    <t>CA$ 521.97</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WO31_V1.jpg</t>
+  </si>
+  <si>
+    <t>AGOLDE</t>
+  </si>
+  <si>
+    <t>Wayne Denim Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO87_V1.jpg</t>
+  </si>
+  <si>
+    <t>BLANKNYC</t>
+  </si>
+  <si>
+    <t>Suede Moto Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/blanknyc-suede-moto-jacket-in-sand-stoner/dp/BLAN-WO87/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WO23_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Cropped Charles Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 299.18</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/favorite-daughter-the-cropped-charles-trench-coat-in-sand/dp/FAVR-WO23/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lovers and Friends</t>
+  </si>
+  <si>
+    <t>x Rachel Ridley Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 517.19</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
+  </si>
+  <si>
+    <t>Oversized Moto Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 178.23</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO28_V1.jpg</t>
+  </si>
+  <si>
+    <t>superdown</t>
+  </si>
+  <si>
+    <t>Raya Rhinestone Fringe Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 393.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/superdown-raya-rhinestone-fringe-jacket-in-light-blue-wash/dp/SPDW-WO28/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
+  </si>
+  <si>
+    <t>Hughes Vest</t>
+  </si>
+  <si>
+    <t>CA$ 205.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nirvana Bomber</t>
+  </si>
+  <si>
+    <t>CA$ 168.72</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BBDA-WO925_V1.jpg</t>
   </si>
   <si>
     <t>Steve Madden</t>
   </si>
   <si>
-    <t>Sirus Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 168.72</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/steve-madden-sirus-jacket-in-khaki/dp/SMAD-WO83/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WO17_V1.jpg</t>
-  </si>
-  <si>
-    <t>Camila Coelho</t>
-  </si>
-  <si>
-    <t>Morena Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 315.10</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-morena-blazer-in-nude-toffee/dp/COEL-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WO21_V1.jpg</t>
-  </si>
-  <si>
-    <t>Arielle Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 283.27</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-arielle-blazer-in-ivory/dp/COEL-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO61_V1.jpg</t>
-  </si>
-  <si>
-    <t>ANINE BING</t>
-  </si>
-  <si>
-    <t>Rory Denim Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 556.98</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-rory-denim-jacket-in-vintage-blue/dp/ANIN-WO61/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO21_V1.jpg</t>
-  </si>
-  <si>
-    <t>ALLSAINTS</t>
-  </si>
-  <si>
-    <t>Milena Hooded Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 396.25</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-milena-hooded-jacket-in-indigo-blue/dp/ALLR-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO49_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'AGENCE</t>
-  </si>
-  <si>
-    <t>Janelle Slim Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 454.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lagence-janelle-slim-jacket-in-biscuit/dp/LAGR-WO49/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO17_V1.jpg</t>
-  </si>
-  <si>
-    <t>LIONESS</t>
-  </si>
-  <si>
-    <t>Olsen Coat</t>
-  </si>
-  <si>
-    <t>CA$ 221.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-olsen-coat-in-cream/dp/LIOR-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO82_V1.jpg</t>
-  </si>
-  <si>
-    <t>Quinn Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 875.25</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-quinn-blazer-in-green-khaki/dp/ANIN-WO82/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WO65_V1.jpg</t>
-  </si>
-  <si>
-    <t>LEVI'S</t>
-  </si>
-  <si>
-    <t>90s Trucker</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO26_V1.jpg</t>
-  </si>
-  <si>
-    <t>Helsa</t>
-  </si>
-  <si>
-    <t>Workwear Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 410.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO164_V1.jpg</t>
-  </si>
-  <si>
-    <t>Norma Kamali</t>
-  </si>
-  <si>
-    <t>Oversized Single Breasted Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 413.75</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-single-breasted-jacket-in-woods/dp/NKAM-WO164/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WO69_V1.jpg</t>
-  </si>
-  <si>
-    <t>Show Me Your Mumu</t>
-  </si>
-  <si>
-    <t>Penny Lane Faux Leather Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 284.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-penny-lane-faux-leather-jacket-in-sage/dp/SHOW-WO69/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO64_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bardot</t>
-  </si>
-  <si>
-    <t>The Classic Trench</t>
-  </si>
-  <si>
-    <t>CA$ 301.22</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WS13_V1.jpg</t>
-  </si>
-  <si>
-    <t>Favorite Daughter</t>
-  </si>
-  <si>
-    <t>The Favorite Vest</t>
-  </si>
-  <si>
-    <t>CA$ 420.12</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO29_V1.jpg</t>
-  </si>
-  <si>
-    <t>Amanda Uprichard</t>
-  </si>
-  <si>
-    <t>Shawl Collar Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 521.97</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WO23_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Cropped Charles Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 517.19</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/favorite-daughter-the-cropped-charles-trench-coat-in-sand/dp/FAVR-WO23/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
-  </si>
-  <si>
-    <t>Oversized Moto Jacket</t>
+    <t>Knits It Jacket</t>
   </si>
   <si>
     <t>CA$ 200.51</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_26</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WO27_V1.jpg</t>
@@ -287,109 +455,13 @@
     <t>Myka Trench Coat</t>
   </si>
   <si>
-    <t>CA$ 299.18</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lovers and Friends</t>
-  </si>
-  <si>
-    <t>x Rachel Ridley Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 553.80</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO11_V1.jpg</t>
-  </si>
-  <si>
-    <t>Recycled Twill S Curve Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 167.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helsa-recycled-twill-s-curve-jacket-in-light-khaki/dp/HLSA-WO11/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO155_V1.jpg</t>
-  </si>
-  <si>
-    <t>superdown</t>
-  </si>
-  <si>
-    <t>Blakely Faux Leather Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/superdown-blakely-faux-leather-jacket-in-brown/dp/SPDW-WO155/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WO31_V1.jpg</t>
-  </si>
-  <si>
-    <t>AGOLDE</t>
-  </si>
-  <si>
-    <t>Wayne Denim Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO87_V1.jpg</t>
-  </si>
-  <si>
-    <t>BLANKNYC</t>
-  </si>
-  <si>
-    <t>Suede Moto Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/blanknyc-suede-moto-jacket-in-sand-stoner/dp/BLAN-WO87/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BBDA-WO925_V1.jpg</t>
-  </si>
-  <si>
-    <t>Knits It Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 205.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nirvana Bomber</t>
-  </si>
-  <si>
-    <t>CA$ 178.23</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO28_V1.jpg</t>
-  </si>
-  <si>
-    <t>Raya Rhinestone Fringe Jacket</t>
-  </si>
-  <si>
     <t>CA$ 393.77</t>
   </si>
   <si>
-    <t>https://www.revolve.com/superdown-raya-rhinestone-fringe-jacket-in-light-blue-wash/dp/SPDW-WO28/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO47_V1.jpg</t>
@@ -398,22 +470,31 @@
     <t>Jane Blazer</t>
   </si>
   <si>
-    <t>CA$ 393.06</t>
+    <t>CA$ 930.95</t>
   </si>
   <si>
     <t>https://www.revolve.com/amanda-uprichard-jane-blazer-in-black/dp/AMAN-WO47/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
-  </si>
-  <si>
-    <t>Hughes Vest</t>
+    <t>women_revolve_coat_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SELF-WO5_V1.jpg</t>
+  </si>
+  <si>
+    <t>self-portrait</t>
+  </si>
+  <si>
+    <t>Textured Knit Jacket</t>
   </si>
   <si>
     <t>CA$ 285.20</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/selfportrait-textured-knit-jacket-in-yellow/dp/SELF-WO5/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WS982_V1.jpg</t>
@@ -425,10 +506,43 @@
     <t>Carinne Vest Top</t>
   </si>
   <si>
+    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WO837_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Quinn Quilted Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,074.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-quinn-quilted-jacket-in-black/dp/FREE-WO837/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
+  </si>
+  <si>
+    <t>Kenzie Blazer</t>
+  </si>
+  <si>
     <t>CA$ 1,106.00</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/VBRD-WO29_V1.jpg</t>
@@ -440,10 +554,58 @@
     <t>Miller Dickey Jacket</t>
   </si>
   <si>
+    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
+  </si>
+  <si>
+    <t>Matilde Vest</t>
+  </si>
+  <si>
+    <t>CA$ 946.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
+  </si>
+  <si>
+    <t>LAMARQUE</t>
+  </si>
+  <si>
+    <t>Tatum Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 203.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
+  </si>
+  <si>
+    <t>Faux Leather Moto Jacket</t>
+  </si>
+  <si>
     <t>CA$ 316.68</t>
   </si>
   <si>
-    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO61_V1.jpg</t>
@@ -452,28 +614,10 @@
     <t>Faux Leather Trench Coat</t>
   </si>
   <si>
-    <t>CA$ 1,074.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
-  </si>
-  <si>
-    <t>Kenzie Blazer</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
-  </si>
-  <si>
-    <t>Matilde Vest</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO27_V1.jpg</t>
@@ -482,49 +626,25 @@
     <t>Coco Jacket</t>
   </si>
   <si>
-    <t>CA$ 946.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
-  </si>
-  <si>
-    <t>LAMARQUE</t>
-  </si>
-  <si>
-    <t>Tatum Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 203.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
-  </si>
-  <si>
-    <t>Faux Leather Moto Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 792.51</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO3_V1.jpg</t>
-  </si>
-  <si>
-    <t>Faux Leather &amp; Wool Blend Bomber</t>
+    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO94_V1.jpg</t>
+  </si>
+  <si>
+    <t>Sanders Jacket</t>
   </si>
   <si>
     <t>CA$ 362.84</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helsa-faux-leather-wool-blend-bomber-in-tan/dp/HLSA-WO3/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/amanda-uprichard-sanders-jacket-in-black/dp/AMAN-WO94/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WO52_V1.jpg</t>
@@ -536,34 +656,22 @@
     <t>Niko Blazer</t>
   </si>
   <si>
+    <t>CA$ 794.09</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-niko-blazer-in-rose-pink/dp/NBDR-WO52/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO80_V1.jpg</t>
+  </si>
+  <si>
+    <t>Elora Biker Jacket</t>
+  </si>
+  <si>
     <t>CA$ 237.12</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-niko-blazer-in-rose-pink/dp/NBDR-WO52/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAIB-WO4_V1.jpg</t>
-  </si>
-  <si>
-    <t>FAITHFULL THE BRAND</t>
-  </si>
-  <si>
-    <t>Stanze Vest</t>
-  </si>
-  <si>
-    <t>CA$ 794.09</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/faithfull-the-brand-stanze-vest-in-black/dp/FAIB-WO4/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO80_V1.jpg</t>
-  </si>
-  <si>
-    <t>Elora Biker Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 930.95</t>
   </si>
   <si>
     <t>https://www.revolve.com/allsaints-elora-biker-jacket-in-black/dp/ALLR-WO80/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
@@ -659,782 +767,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>166</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenRevolveCoat.xlsx
+++ b/src/main/resources/womenRevolveCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,24 @@
     <t>women_revolve_coat_2</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SMAD-WO83_V1.jpg</t>
+  </si>
+  <si>
+    <t>Steve Madden</t>
+  </si>
+  <si>
+    <t>Sirus Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 168.72</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/steve-madden-sirus-jacket-in-khaki/dp/SMAD-WO83/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO61_V1.jpg</t>
   </si>
   <si>
@@ -65,10 +83,10 @@
     <t>CA$ 556.98</t>
   </si>
   <si>
-    <t>https://www.revolve.com/anine-bing-rory-denim-jacket-in-vintage-blue/dp/ANIN-WO61/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_3</t>
+    <t>https://www.revolve.com/anine-bing-rory-denim-jacket-in-vintage-blue/dp/ANIN-WO61/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_4</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WO65_V1.jpg</t>
@@ -83,10 +101,10 @@
     <t>CA$ 151.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_4</t>
+    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_5</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WO21_V1.jpg</t>
@@ -98,10 +116,10 @@
     <t>CA$ 283.27</t>
   </si>
   <si>
-    <t>https://www.revolve.com/camila-coelho-arielle-blazer-in-ivory/dp/COEL-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_5</t>
+    <t>https://www.revolve.com/camila-coelho-arielle-blazer-in-ivory/dp/COEL-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO21_V1.jpg</t>
@@ -116,10 +134,10 @@
     <t>CA$ 396.25</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-milena-hooded-jacket-in-indigo-blue/dp/ALLR-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_6</t>
+    <t>https://www.revolve.com/allsaints-milena-hooded-jacket-in-indigo-blue/dp/ALLR-WO21/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO49_V1.jpg</t>
@@ -134,10 +152,10 @@
     <t>CA$ 454.87</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lagence-janelle-slim-jacket-in-biscuit/dp/LAGR-WO49/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_7</t>
+    <t>https://www.revolve.com/lagence-janelle-slim-jacket-in-biscuit/dp/LAGR-WO49/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_8</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WO82_V1.jpg</t>
@@ -149,10 +167,10 @@
     <t>CA$ 875.25</t>
   </si>
   <si>
-    <t>https://www.revolve.com/anine-bing-quinn-blazer-in-green-khaki/dp/ANIN-WO82/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_8</t>
+    <t>https://www.revolve.com/anine-bing-quinn-blazer-in-green-khaki/dp/ANIN-WO82/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO10_V1.jpg</t>
@@ -167,10 +185,10 @@
     <t>CA$ 553.80</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helsa-recycled-twill-s-curve-jacket-in-black/dp/HLSA-WO10/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_9</t>
+    <t>https://www.revolve.com/helsa-recycled-twill-s-curve-jacket-in-black/dp/HLSA-WO10/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO26_V1.jpg</t>
@@ -182,10 +200,10 @@
     <t>CA$ 410.58</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_10</t>
+    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO17_V1.jpg</t>
@@ -200,10 +218,10 @@
     <t>CA$ 221.20</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lioness-olsen-coat-in-cream/dp/LIOR-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_11</t>
+    <t>https://www.revolve.com/lioness-olsen-coat-in-cream/dp/LIOR-WO17/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO164_V1.jpg</t>
@@ -218,10 +236,10 @@
     <t>CA$ 413.75</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-single-breasted-jacket-in-woods/dp/NKAM-WO164/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_12</t>
+    <t>https://www.revolve.com/norma-kamali-oversized-single-breasted-jacket-in-woods/dp/NKAM-WO164/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WO69_V1.jpg</t>
@@ -236,10 +254,10 @@
     <t>CA$ 420.12</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-penny-lane-faux-leather-jacket-in-sage/dp/SHOW-WO69/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_13</t>
+    <t>https://www.revolve.com/show-me-your-mumu-penny-lane-faux-leather-jacket-in-sage/dp/SHOW-WO69/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO29_V1.jpg</t>
@@ -254,10 +272,10 @@
     <t>CA$ 301.22</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_14</t>
+    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WS13_V1.jpg</t>
@@ -272,10 +290,10 @@
     <t>CA$ 284.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_15</t>
+    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO64_V1.jpg</t>
@@ -287,325 +305,319 @@
     <t>The Classic Trench</t>
   </si>
   <si>
-    <t>CA$ 521.97</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WO31_V1.jpg</t>
-  </si>
-  <si>
-    <t>AGOLDE</t>
-  </si>
-  <si>
-    <t>Wayne Denim Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 299.18</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lovers and Friends</t>
+  </si>
+  <si>
+    <t>x Rachel Ridley Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 517.19</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_18</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO87_V1.jpg</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
+  </si>
+  <si>
+    <t>Oversized Moto Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 167.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO155_V1.jpg</t>
+  </si>
+  <si>
+    <t>superdown</t>
+  </si>
+  <si>
+    <t>Blakely Faux Leather Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 178.23</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/superdown-blakely-faux-leather-jacket-in-brown/dp/SPDW-WO155/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO28_V1.jpg</t>
+  </si>
+  <si>
+    <t>Raya Rhinestone Fringe Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 205.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/superdown-raya-rhinestone-fringe-jacket-in-light-blue-wash/dp/SPDW-WO28/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nirvana Bomber</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_22</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BBDA-WO925_V1.jpg</t>
+  </si>
+  <si>
+    <t>Knits It Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 200.51</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>SNDYS</t>
+  </si>
+  <si>
+    <t>Myka Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 393.77</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO47_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jane Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 930.95</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-jane-blazer-in-black/dp/AMAN-WO47/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SELF-WO5_V1.jpg</t>
+  </si>
+  <si>
+    <t>self-portrait</t>
+  </si>
+  <si>
+    <t>Textured Knit Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/selfportrait-textured-knit-jacket-in-yellow/dp/SELF-WO5/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_27</t>
+  </si>
+  <si>
+    <t>CA$ 393.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/steve-madden-sirus-jacket-in-khaki/dp/SMAD-WO83/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
+  </si>
+  <si>
+    <t>Hughes Vest</t>
+  </si>
+  <si>
+    <t>CA$ 285.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WS982_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'Academie</t>
+  </si>
+  <si>
+    <t>Carinne Vest Top</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_30</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WO837_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Quinn Quilted Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,074.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-quinn-quilted-jacket-in-black/dp/FREE-WO837/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
+  </si>
+  <si>
+    <t>Kenzie Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 1,106.00</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VBRD-WO29_V1.jpg</t>
+  </si>
+  <si>
+    <t>Veronica Beard</t>
+  </si>
+  <si>
+    <t>Miller Dickey Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
+  </si>
+  <si>
+    <t>Matilde Vest</t>
+  </si>
+  <si>
+    <t>CA$ 569.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WO252_V1.jpg</t>
+  </si>
+  <si>
+    <t>by Marianna Ayisa Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 946.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lacademie-by-marianna-ayisa-trench-coat-in-light-khaki/dp/LCDE-WO252/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
+  </si>
+  <si>
+    <t>LAMARQUE</t>
+  </si>
+  <si>
+    <t>Tatum Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 203.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
   </si>
   <si>
     <t>BLANKNYC</t>
   </si>
   <si>
-    <t>Suede Moto Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/blanknyc-suede-moto-jacket-in-sand-stoner/dp/BLAN-WO87/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WO23_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Cropped Charles Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 299.18</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/favorite-daughter-the-cropped-charles-trench-coat-in-sand/dp/FAVR-WO23/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lovers and Friends</t>
-  </si>
-  <si>
-    <t>x Rachel Ridley Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 517.19</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
-  </si>
-  <si>
-    <t>Oversized Moto Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 178.23</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO28_V1.jpg</t>
-  </si>
-  <si>
-    <t>superdown</t>
-  </si>
-  <si>
-    <t>Raya Rhinestone Fringe Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 393.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/superdown-raya-rhinestone-fringe-jacket-in-light-blue-wash/dp/SPDW-WO28/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
-  </si>
-  <si>
-    <t>Hughes Vest</t>
-  </si>
-  <si>
-    <t>CA$ 205.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nirvana Bomber</t>
-  </si>
-  <si>
-    <t>CA$ 168.72</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BBDA-WO925_V1.jpg</t>
-  </si>
-  <si>
-    <t>Steve Madden</t>
-  </si>
-  <si>
-    <t>Knits It Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 200.51</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>SNDYS</t>
-  </si>
-  <si>
-    <t>Myka Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 393.77</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO47_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jane Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 930.95</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-jane-blazer-in-black/dp/AMAN-WO47/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SELF-WO5_V1.jpg</t>
-  </si>
-  <si>
-    <t>self-portrait</t>
-  </si>
-  <si>
-    <t>Textured Knit Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 285.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/selfportrait-textured-knit-jacket-in-yellow/dp/SELF-WO5/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WS982_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'Academie</t>
-  </si>
-  <si>
-    <t>Carinne Vest Top</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WO837_V1.jpg</t>
-  </si>
-  <si>
-    <t>Free People</t>
-  </si>
-  <si>
-    <t>Quinn Quilted Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 1,074.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-quinn-quilted-jacket-in-black/dp/FREE-WO837/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
-  </si>
-  <si>
-    <t>Kenzie Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 1,106.00</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VBRD-WO29_V1.jpg</t>
-  </si>
-  <si>
-    <t>Veronica Beard</t>
-  </si>
-  <si>
-    <t>Miller Dickey Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
-  </si>
-  <si>
-    <t>Matilde Vest</t>
-  </si>
-  <si>
-    <t>CA$ 946.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_34</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
-  </si>
-  <si>
-    <t>LAMARQUE</t>
-  </si>
-  <si>
-    <t>Tatum Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 203.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
-  </si>
-  <si>
     <t>Faux Leather Moto Jacket</t>
   </si>
   <si>
     <t>CA$ 316.68</t>
   </si>
   <si>
-    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_36</t>
+    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO61_V1.jpg</t>
@@ -614,10 +626,10 @@
     <t>Faux Leather Trench Coat</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_37</t>
+    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO27_V1.jpg</t>
@@ -626,10 +638,10 @@
     <t>Coco Jacket</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_38</t>
+    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO94_V1.jpg</t>
@@ -641,40 +653,7 @@
     <t>CA$ 362.84</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-sanders-jacket-in-black/dp/AMAN-WO94/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WO52_V1.jpg</t>
-  </si>
-  <si>
-    <t>NBD</t>
-  </si>
-  <si>
-    <t>Niko Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 794.09</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-niko-blazer-in-rose-pink/dp/NBDR-WO52/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-WO80_V1.jpg</t>
-  </si>
-  <si>
-    <t>Elora Biker Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 237.12</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-elora-biker-jacket-in-black/dp/ALLR-WO80/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/amanda-uprichard-sanders-jacket-in-black/dp/AMAN-WO94/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -813,27 +792,27 @@
         <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>32</v>
@@ -873,27 +852,27 @@
         <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>49</v>
@@ -913,27 +892,27 @@
         <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>60</v>
@@ -1059,127 +1038,127 @@
         <v>96</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>65</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>126</v>
@@ -1193,7 +1172,7 @@
         <v>128</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>129</v>
@@ -1213,27 +1192,27 @@
         <v>133</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>140</v>
@@ -1259,290 +1238,290 @@
         <v>146</v>
       </c>
       <c r="E27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>147</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="F29" t="s" s="0">
         <v>155</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s" s="0">
         <v>160</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenRevolveCoat.xlsx
+++ b/src/main/resources/womenRevolveCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -242,160 +242,172 @@
     <t>women_revolve_coat_13</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WO69_V1.jpg</t>
-  </si>
-  <si>
-    <t>Show Me Your Mumu</t>
-  </si>
-  <si>
-    <t>Penny Lane Faux Leather Jacket</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO29_V1.jpg</t>
+  </si>
+  <si>
+    <t>Amanda Uprichard</t>
+  </si>
+  <si>
+    <t>Shawl Collar Blazer</t>
   </si>
   <si>
     <t>CA$ 420.12</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-penny-lane-faux-leather-jacket-in-sage/dp/SHOW-WO69/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_14</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO29_V1.jpg</t>
-  </si>
-  <si>
-    <t>Amanda Uprichard</t>
-  </si>
-  <si>
-    <t>Shawl Collar Blazer</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WS13_V1.jpg</t>
+  </si>
+  <si>
+    <t>Favorite Daughter</t>
+  </si>
+  <si>
+    <t>The Favorite Vest</t>
   </si>
   <si>
     <t>CA$ 301.22</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-shawl-collar-blazer-in-ivory/dp/AMAN-WO29/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_15</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WS13_V1.jpg</t>
-  </si>
-  <si>
-    <t>Favorite Daughter</t>
-  </si>
-  <si>
-    <t>The Favorite Vest</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO64_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>The Classic Trench</t>
   </si>
   <si>
     <t>CA$ 284.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/favorite-daughter-the-favorite-vest-in-ivory/dp/FAVR-WS13/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_16</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO64_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bardot</t>
-  </si>
-  <si>
-    <t>The Classic Trench</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WO31_V1.jpg</t>
+  </si>
+  <si>
+    <t>AGOLDE</t>
+  </si>
+  <si>
+    <t>Wayne Denim Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 521.97</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-wayne-denim-jacket-in-resent/dp/AGOL-WO31/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO87_V1.jpg</t>
+  </si>
+  <si>
+    <t>BLANKNYC</t>
+  </si>
+  <si>
+    <t>Suede Moto Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/blanknyc-suede-moto-jacket-in-sand-stoner/dp/BLAN-WO87/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAVR-WO23_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Cropped Charles Trench Coat</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/favorite-daughter-the-cropped-charles-trench-coat-in-sand/dp/FAVR-WO23/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lovers and Friends</t>
+  </si>
+  <si>
+    <t>x Rachel Ridley Trench Coat</t>
   </si>
   <si>
     <t>CA$ 299.18</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bardot-the-classic-trench-in-tan/dp/BARD-WO64/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_17</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WO522_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lovers and Friends</t>
-  </si>
-  <si>
-    <t>x Rachel Ridley Trench Coat</t>
+    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
+  </si>
+  <si>
+    <t>Oversized Moto Jacket</t>
   </si>
   <si>
     <t>CA$ 517.19</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lovers-and-friends-x-rachel-ridley-trench-coat-in-beige/dp/LOVF-WO522/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_18</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO172_V1.jpg</t>
-  </si>
-  <si>
-    <t>Oversized Moto Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 167.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO155_V1.jpg</t>
-  </si>
-  <si>
-    <t>superdown</t>
-  </si>
-  <si>
-    <t>Blakely Faux Leather Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 178.23</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/superdown-blakely-faux-leather-jacket-in-brown/dp/SPDW-WO155/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WO28_V1.jpg</t>
-  </si>
-  <si>
-    <t>Raya Rhinestone Fringe Jacket</t>
+    <t>https://www.revolve.com/norma-kamali-oversized-moto-jacket-in-chocolate/dp/NKAM-WO172/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
+  </si>
+  <si>
+    <t>Hughes Vest</t>
+  </si>
+  <si>
+    <t>CA$ 393.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nirvana Bomber</t>
   </si>
   <si>
     <t>CA$ 205.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/superdown-raya-rhinestone-fringe-jacket-in-light-blue-wash/dp/SPDW-WO28/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nirvana Bomber</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_22</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_23</t>
+    <t>https://www.revolve.com/lioness-nirvana-bomber-in-camel/dp/LIOR-WO15/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_24</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BBDA-WO925_V1.jpg</t>
@@ -404,256 +416,262 @@
     <t>Knits It Jacket</t>
   </si>
   <si>
+    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>SNDYS</t>
+  </si>
+  <si>
+    <t>Myka Trench Coat</t>
+  </si>
+  <si>
     <t>CA$ 200.51</t>
   </si>
   <si>
-    <t>https://www.revolve.com/steve-madden-knits-it-jacket-in-bone/dp/BBDA-WO925/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>SNDYS</t>
-  </si>
-  <si>
-    <t>Myka Trench Coat</t>
+    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO47_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jane Blazer</t>
   </si>
   <si>
     <t>CA$ 393.77</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-myka-trench-coat-in-bone/dp/SDYS-WO27/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO47_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jane Blazer</t>
+    <t>https://www.revolve.com/amanda-uprichard-jane-blazer-in-black/dp/AMAN-WO47/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_coat_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SELF-WO5_V1.jpg</t>
+  </si>
+  <si>
+    <t>self-portrait</t>
+  </si>
+  <si>
+    <t>Textured Knit Jacket</t>
   </si>
   <si>
     <t>CA$ 930.95</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-jane-blazer-in-black/dp/AMAN-WO47/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SELF-WO5_V1.jpg</t>
-  </si>
-  <si>
-    <t>self-portrait</t>
-  </si>
-  <si>
-    <t>Textured Knit Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/selfportrait-textured-knit-jacket-in-yellow/dp/SELF-WO5/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_coat_27</t>
-  </si>
-  <si>
-    <t>CA$ 393.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/steve-madden-sirus-jacket-in-khaki/dp/SMAD-WO83/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/selfportrait-textured-knit-jacket-in-yellow/dp/SELF-WO5/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_28</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO124_V1.jpg</t>
-  </si>
-  <si>
-    <t>Hughes Vest</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WS982_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'Academie</t>
+  </si>
+  <si>
+    <t>Carinne Vest Top</t>
   </si>
   <si>
     <t>CA$ 285.20</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-hughes-vest-in-white/dp/AMAN-WO124/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_29</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WS982_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'Academie</t>
-  </si>
-  <si>
-    <t>Carinne Vest Top</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lacademie-carinne-vest-top-in-creme/dp/LCDE-WS982/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WO837_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Quinn Quilted Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-quinn-quilted-jacket-in-black/dp/FREE-WO837/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_30</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
+  </si>
+  <si>
+    <t>Kenzie Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 1,074.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_31</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WO837_V1.jpg</t>
-  </si>
-  <si>
-    <t>Free People</t>
-  </si>
-  <si>
-    <t>Quinn Quilted Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 1,074.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-quinn-quilted-jacket-in-black/dp/FREE-WO837/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VBRD-WO29_V1.jpg</t>
+  </si>
+  <si>
+    <t>Veronica Beard</t>
+  </si>
+  <si>
+    <t>Miller Dickey Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,106.00</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_32</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LAGR-WO30_V1.jpg</t>
-  </si>
-  <si>
-    <t>Kenzie Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 1,106.00</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lagence-kenzie-blazer-in-black/dp/LAGR-WO30/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
+  </si>
+  <si>
+    <t>Matilde Vest</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_33</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VBRD-WO29_V1.jpg</t>
-  </si>
-  <si>
-    <t>Veronica Beard</t>
-  </si>
-  <si>
-    <t>Miller Dickey Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/veronica-beard-miller-dickey-jacket-in-navy/dp/VBRD-WO29/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
+  </si>
+  <si>
+    <t>LAMARQUE</t>
+  </si>
+  <si>
+    <t>Tatum Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 946.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_34</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS358_V1.jpg</t>
-  </si>
-  <si>
-    <t>Matilde Vest</t>
-  </si>
-  <si>
-    <t>CA$ 569.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-matilde-vest-in-sage-green/dp/COEL-WS358/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
+  </si>
+  <si>
+    <t>Faux Leather Moto Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 203.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_35</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WO252_V1.jpg</t>
-  </si>
-  <si>
-    <t>by Marianna Ayisa Trench Coat</t>
-  </si>
-  <si>
-    <t>CA$ 946.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lacademie-by-marianna-ayisa-trench-coat-in-light-khaki/dp/LCDE-WO252/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO61_V1.jpg</t>
+  </si>
+  <si>
+    <t>Faux Leather Trench Coat</t>
+  </si>
+  <si>
+    <t>CA$ 316.68</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_36</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LARX-WO197_V1.jpg</t>
-  </si>
-  <si>
-    <t>LAMARQUE</t>
-  </si>
-  <si>
-    <t>Tatum Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 203.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lamarque-tatum-jacket-in-dark-brown/dp/LARX-WO197/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>Coco Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_37</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BLAN-WO376_V1.jpg</t>
-  </si>
-  <si>
-    <t>BLANKNYC</t>
-  </si>
-  <si>
-    <t>Faux Leather Moto Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 316.68</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/blanknyc-faux-leather-moto-jacket-in-personal-calls/dp/BLAN-WO376/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO94_V1.jpg</t>
+  </si>
+  <si>
+    <t>Sanders Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-sanders-jacket-in-black/dp/AMAN-WO94/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_38</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WO61_V1.jpg</t>
-  </si>
-  <si>
-    <t>Faux Leather Trench Coat</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bardot-faux-leather-trench-coat-in-chocolate/dp/BARD-WO61/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WO52_V1.jpg</t>
+  </si>
+  <si>
+    <t>NBD</t>
+  </si>
+  <si>
+    <t>Niko Blazer</t>
+  </si>
+  <si>
+    <t>CA$ 362.84</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-niko-blazer-in-rose-pink/dp/NBDR-WO52/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_39</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>Coco Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lioness-coco-jacket-in-onyx/dp/LIOR-WO27/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAIB-WO4_V1.jpg</t>
+  </si>
+  <si>
+    <t>FAITHFULL THE BRAND</t>
+  </si>
+  <si>
+    <t>Stanze Vest</t>
+  </si>
+  <si>
+    <t>CA$ 237.12</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/faithfull-the-brand-stanze-vest-in-black/dp/FAIB-WO4/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_coat_40</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WO94_V1.jpg</t>
-  </si>
-  <si>
-    <t>Sanders Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 362.84</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-sanders-jacket-in-black/dp/AMAN-WO94/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HEAR-WS380_V1.jpg</t>
+  </si>
+  <si>
+    <t>HEARTLOOM</t>
+  </si>
+  <si>
+    <t>Silvie Vest</t>
+  </si>
+  <si>
+    <t>CA$ 165.76</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/heartloom-silvie-vest-in-bark/dp/HEAR-WS380/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -1049,479 +1067,479 @@
         <v>99</v>
       </c>
       <c r="B18" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>125</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="C24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="E24" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>130</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="C25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="E25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>134</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="E26" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="F26" t="s" s="0">
         <v>140</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="E27" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="F27" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="D28" t="s" s="0">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
